--- a/笔记汇总地/计算机通用性知识/如何科学刷算法，茶神题单.xlsx
+++ b/笔记汇总地/计算机通用性知识/如何科学刷算法，茶神题单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/IdeaProjects/personStudy/笔记汇总地/计算机通用性知识/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BE6CF3-9563-4041-806B-06D17075C62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E02E723-F867-9942-94F1-AC9365CE4351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{C3DBF28C-0156-4C11-BC48-1A8120F51180}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="40960" windowHeight="20620" xr2:uid="{C3DBF28C-0156-4C11-BC48-1A8120F51180}"/>
   </bookViews>
   <sheets>
     <sheet name="滑动窗口与双指针" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9006" uniqueCount="5741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9007" uniqueCount="5742">
   <si>
     <t>大分类</t>
   </si>
@@ -17451,6 +17451,10 @@
   </si>
   <si>
     <t>1注意k小于0的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1思维滑动窗口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -18283,8 +18287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E047914-3EA0-4137-B639-84DE8DE1FBFD}">
   <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -18765,7 +18769,9 @@
       <c r="G19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="8" t="s">
+        <v>5741</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="35" customHeight="1">
       <c r="A20" s="11" t="s">
@@ -18789,7 +18795,9 @@
       <c r="G20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="35" customHeight="1">
       <c r="A21" s="12" t="s">

--- a/笔记汇总地/计算机通用性知识/如何科学刷算法，茶神题单.xlsx
+++ b/笔记汇总地/计算机通用性知识/如何科学刷算法，茶神题单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/IdeaProjects/personStudy/笔记汇总地/计算机通用性知识/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E02E723-F867-9942-94F1-AC9365CE4351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A391453-D6C6-9443-9DB8-13F08E003291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="40960" windowHeight="20620" xr2:uid="{C3DBF28C-0156-4C11-BC48-1A8120F51180}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="40960" windowHeight="20620" activeTab="7" xr2:uid="{C3DBF28C-0156-4C11-BC48-1A8120F51180}"/>
   </bookViews>
   <sheets>
     <sheet name="滑动窗口与双指针" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9007" uniqueCount="5742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9015" uniqueCount="5749">
   <si>
     <t>大分类</t>
   </si>
@@ -17455,6 +17455,34 @@
   </si>
   <si>
     <t>1思维滑动窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金典题目，值得重刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、是个好题，方案很多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、好题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要重刷，稍微复杂就不会了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好题，值得重刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1分治方法可以考虑一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要重新做，需要同时递推两个变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -17654,7 +17682,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -17726,43 +17754,6 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF191919"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -17938,17 +17929,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -18287,8 +18278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E047914-3EA0-4137-B639-84DE8DE1FBFD}">
   <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H2" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -23607,13 +23598,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.5" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="54" t="s">
         <v>4083</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" spans="1:5" ht="26" customHeight="1">
       <c r="A2" s="31" t="s">
@@ -50944,10 +50935,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97094111-C0F2-4FB2-B648-3052C4FFFEA3}">
-  <dimension ref="A1:C339"/>
+  <dimension ref="A1:D339"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="139" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -50955,16 +50946,18 @@
     <col min="1" max="1" width="45.83203125" customWidth="1"/>
     <col min="2" max="2" width="57.1640625" customWidth="1"/>
     <col min="3" max="3" width="64.5" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="47.25" customHeight="1">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:4" ht="47.25" customHeight="1">
+      <c r="A1" s="50" t="s">
         <v>2544</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
-    </row>
-    <row r="2" spans="1:3" ht="31.75" customHeight="1">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:4" ht="31.75" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>798</v>
       </c>
@@ -50974,8 +50967,11 @@
       <c r="C2" s="39" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D2" s="55" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31.75" customHeight="1">
       <c r="A3" s="38">
         <v>70</v>
       </c>
@@ -50985,8 +50981,11 @@
       <c r="C3" s="41" t="s">
         <v>2547</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D3" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31.75" customHeight="1">
       <c r="A4" s="38">
         <v>746</v>
       </c>
@@ -50996,8 +50995,11 @@
       <c r="C4" s="41" t="s">
         <v>2549</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D4" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.75" customHeight="1">
       <c r="A5" s="38">
         <v>377</v>
       </c>
@@ -51007,8 +51009,11 @@
       <c r="C5" s="41" t="s">
         <v>2551</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D5" s="56" t="s">
+        <v>5742</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.75" customHeight="1">
       <c r="A6" s="38">
         <v>2466</v>
       </c>
@@ -51018,8 +51023,11 @@
       <c r="C6" s="41" t="s">
         <v>2553</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D6" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.75" customHeight="1">
       <c r="A7" s="38">
         <v>2266</v>
       </c>
@@ -51029,8 +51037,11 @@
       <c r="C7" s="41" t="s">
         <v>2555</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D7" s="56" t="s">
+        <v>5743</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31.75" customHeight="1">
       <c r="A8" s="38">
         <v>2533</v>
       </c>
@@ -51040,8 +51051,9 @@
       <c r="C8" s="41" t="s">
         <v>2557</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D8" s="55"/>
+    </row>
+    <row r="9" spans="1:4" ht="31.75" customHeight="1">
       <c r="A9" s="38">
         <v>198</v>
       </c>
@@ -51051,8 +51063,11 @@
       <c r="C9" s="41" t="s">
         <v>2559</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D9" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31.75" customHeight="1">
       <c r="A10" s="38">
         <v>213</v>
       </c>
@@ -51062,8 +51077,11 @@
       <c r="C10" s="41" t="s">
         <v>2561</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D10" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="47.25" customHeight="1">
       <c r="A11" s="38">
         <v>2320</v>
       </c>
@@ -51073,8 +51091,11 @@
       <c r="C11" s="41" t="s">
         <v>2563</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D11" s="56" t="s">
+        <v>5744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="31.75" customHeight="1">
       <c r="A12" s="38">
         <v>740</v>
       </c>
@@ -51084,8 +51105,11 @@
       <c r="C12" s="41" t="s">
         <v>2565</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D12" s="55" t="s">
+        <v>5745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="47.25" customHeight="1">
       <c r="A13" s="38">
         <v>3186</v>
       </c>
@@ -51095,8 +51119,11 @@
       <c r="C13" s="41" t="s">
         <v>2567</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D13" s="56" t="s">
+        <v>5746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31.75" customHeight="1">
       <c r="A14" s="38">
         <v>2140</v>
       </c>
@@ -51106,8 +51133,11 @@
       <c r="C14" s="41" t="s">
         <v>2569</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D14" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.75" customHeight="1">
       <c r="A15" s="38">
         <v>53</v>
       </c>
@@ -51117,8 +51147,11 @@
       <c r="C15" s="41" t="s">
         <v>2571</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D15" s="56" t="s">
+        <v>5747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="47.25" customHeight="1">
       <c r="A16" s="38">
         <v>2606</v>
       </c>
@@ -51128,8 +51161,11 @@
       <c r="C16" s="41" t="s">
         <v>2573</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D16" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="47.25" customHeight="1">
       <c r="A17" s="38">
         <v>1749</v>
       </c>
@@ -51139,8 +51175,11 @@
       <c r="C17" s="41" t="s">
         <v>2575</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D17" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="47.25" customHeight="1">
       <c r="A18" s="38">
         <v>1191</v>
       </c>
@@ -51150,8 +51189,11 @@
       <c r="C18" s="41" t="s">
         <v>2577</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D18" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="31.75" customHeight="1">
       <c r="A19" s="38">
         <v>918</v>
       </c>
@@ -51161,8 +51203,11 @@
       <c r="C19" s="41" t="s">
         <v>2579</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D19" s="56" t="s">
+        <v>5748</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31.75" customHeight="1">
       <c r="A20" s="38">
         <v>2321</v>
       </c>
@@ -51172,8 +51217,9 @@
       <c r="C20" s="41" t="s">
         <v>2581</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D20" s="55"/>
+    </row>
+    <row r="21" spans="1:4" ht="31.75" customHeight="1">
       <c r="A21" s="38">
         <v>152</v>
       </c>
@@ -51183,8 +51229,9 @@
       <c r="C21" s="41" t="s">
         <v>2583</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D21" s="56"/>
+    </row>
+    <row r="22" spans="1:4" ht="47.25" customHeight="1">
       <c r="A22" s="38">
         <v>1186</v>
       </c>
@@ -51194,8 +51241,9 @@
       <c r="C22" s="41" t="s">
         <v>2585</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D22" s="55"/>
+    </row>
+    <row r="23" spans="1:4" ht="31.75" customHeight="1">
       <c r="A23" s="38">
         <v>64</v>
       </c>
@@ -51205,8 +51253,9 @@
       <c r="C23" s="41" t="s">
         <v>2587</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D23" s="56"/>
+    </row>
+    <row r="24" spans="1:4" ht="31.75" customHeight="1">
       <c r="A24" s="38">
         <v>62</v>
       </c>
@@ -51216,8 +51265,9 @@
       <c r="C24" s="41" t="s">
         <v>2146</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D24" s="55"/>
+    </row>
+    <row r="25" spans="1:4" ht="31.75" customHeight="1">
       <c r="A25" s="38">
         <v>63</v>
       </c>
@@ -51227,8 +51277,9 @@
       <c r="C25" s="41" t="s">
         <v>2590</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D25" s="56"/>
+    </row>
+    <row r="26" spans="1:4" ht="31.75" customHeight="1">
       <c r="A26" s="38">
         <v>120</v>
       </c>
@@ -51238,8 +51289,9 @@
       <c r="C26" s="41" t="s">
         <v>2592</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D26" s="55"/>
+    </row>
+    <row r="27" spans="1:4" ht="47.25" customHeight="1">
       <c r="A27" s="38">
         <v>3393</v>
       </c>
@@ -51249,8 +51301,9 @@
       <c r="C27" s="41" t="s">
         <v>2594</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D27" s="56"/>
+    </row>
+    <row r="28" spans="1:4" ht="31.75" customHeight="1">
       <c r="A28" s="38">
         <v>931</v>
       </c>
@@ -51260,8 +51313,9 @@
       <c r="C28" s="41" t="s">
         <v>2596</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D28" s="55"/>
+    </row>
+    <row r="29" spans="1:4" ht="31.75" customHeight="1">
       <c r="A29" s="38">
         <v>3603</v>
       </c>
@@ -51271,8 +51325,9 @@
       <c r="C29" s="41" t="s">
         <v>2598</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D29" s="56"/>
+    </row>
+    <row r="30" spans="1:4" ht="47.25" customHeight="1">
       <c r="A30" s="38">
         <v>2684</v>
       </c>
@@ -51282,8 +51337,9 @@
       <c r="C30" s="41" t="s">
         <v>2600</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D30" s="55"/>
+    </row>
+    <row r="31" spans="1:4" ht="31.75" customHeight="1">
       <c r="A31" s="38">
         <v>2304</v>
       </c>
@@ -51293,8 +51349,9 @@
       <c r="C31" s="41" t="s">
         <v>2602</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D31" s="56"/>
+    </row>
+    <row r="32" spans="1:4" ht="31.75" customHeight="1">
       <c r="A32" s="38">
         <v>1289</v>
       </c>
@@ -51304,8 +51361,9 @@
       <c r="C32" s="41" t="s">
         <v>2604</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D32" s="55"/>
+    </row>
+    <row r="33" spans="1:4" ht="47.25" customHeight="1">
       <c r="A33" s="38">
         <v>3418</v>
       </c>
@@ -51315,8 +51373,9 @@
       <c r="C33" s="41" t="s">
         <v>2606</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D33" s="56"/>
+    </row>
+    <row r="34" spans="1:4" ht="31.75" customHeight="1">
       <c r="A34" s="38">
         <v>1824</v>
       </c>
@@ -51326,8 +51385,9 @@
       <c r="C34" s="41" t="s">
         <v>2608</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D34" s="55"/>
+    </row>
+    <row r="35" spans="1:4" ht="47.25" customHeight="1">
       <c r="A35" s="38">
         <v>1594</v>
       </c>
@@ -51337,8 +51397,9 @@
       <c r="C35" s="41" t="s">
         <v>2610</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D35" s="56"/>
+    </row>
+    <row r="36" spans="1:4" ht="31.75" customHeight="1">
       <c r="A36" s="38">
         <v>1301</v>
       </c>
@@ -51348,8 +51409,9 @@
       <c r="C36" s="41" t="s">
         <v>2612</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D36" s="55"/>
+    </row>
+    <row r="37" spans="1:4" ht="47.25" customHeight="1">
       <c r="A37" s="38">
         <v>2435</v>
       </c>
@@ -51359,8 +51421,9 @@
       <c r="C37" s="41" t="s">
         <v>2614</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D37" s="56"/>
+    </row>
+    <row r="38" spans="1:4" ht="31.75" customHeight="1">
       <c r="A38" s="38">
         <v>174</v>
       </c>
@@ -51370,8 +51433,9 @@
       <c r="C38" s="41" t="s">
         <v>2616</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D38" s="55"/>
+    </row>
+    <row r="39" spans="1:4" ht="47.25" customHeight="1">
       <c r="A39" s="38">
         <v>329</v>
       </c>
@@ -51381,8 +51445,9 @@
       <c r="C39" s="41" t="s">
         <v>2618</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D39" s="56"/>
+    </row>
+    <row r="40" spans="1:4" ht="47.25" customHeight="1">
       <c r="A40" s="38">
         <v>2328</v>
       </c>
@@ -51392,8 +51457,9 @@
       <c r="C40" s="41" t="s">
         <v>2620</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D40" s="55"/>
+    </row>
+    <row r="41" spans="1:4" ht="47.25" customHeight="1">
       <c r="A41" s="38">
         <v>2267</v>
       </c>
@@ -51403,8 +51469,9 @@
       <c r="C41" s="41" t="s">
         <v>2622</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D41" s="56"/>
+    </row>
+    <row r="42" spans="1:4" ht="47.25" customHeight="1">
       <c r="A42" s="38">
         <v>1937</v>
       </c>
@@ -51414,8 +51481,9 @@
       <c r="C42" s="41" t="s">
         <v>2624</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D42" s="55"/>
+    </row>
+    <row r="43" spans="1:4" ht="47.25" customHeight="1">
       <c r="A43" s="38">
         <v>3363</v>
       </c>
@@ -51425,8 +51493,9 @@
       <c r="C43" s="41" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D43" s="56"/>
+    </row>
+    <row r="44" spans="1:4" ht="31.75" customHeight="1">
       <c r="A44" s="38">
         <v>1463</v>
       </c>
@@ -51436,8 +51505,9 @@
       <c r="C44" s="41" t="s">
         <v>2627</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D44" s="55"/>
+    </row>
+    <row r="45" spans="1:4" ht="31.75" customHeight="1">
       <c r="A45" s="38">
         <v>741</v>
       </c>
@@ -51447,8 +51517,9 @@
       <c r="C45" s="41" t="s">
         <v>2629</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D45" s="56"/>
+    </row>
+    <row r="46" spans="1:4" ht="31.75" customHeight="1">
       <c r="A46" s="38">
         <v>3459</v>
       </c>
@@ -51458,8 +51529,9 @@
       <c r="C46" s="41" t="s">
         <v>2631</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D46" s="55"/>
+    </row>
+    <row r="47" spans="1:4" ht="47.25" customHeight="1">
       <c r="A47" s="38">
         <v>2510</v>
       </c>
@@ -51469,8 +51541,9 @@
       <c r="C47" s="41" t="s">
         <v>2633</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D47" s="56"/>
+    </row>
+    <row r="48" spans="1:4" ht="31.75" customHeight="1">
       <c r="A48" s="38">
         <v>416</v>
       </c>
@@ -51480,8 +51553,9 @@
       <c r="C48" s="41" t="s">
         <v>2635</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D48" s="55"/>
+    </row>
+    <row r="49" spans="1:4" ht="31.75" customHeight="1">
       <c r="A49" s="38">
         <v>494</v>
       </c>
@@ -51491,8 +51565,9 @@
       <c r="C49" s="41" t="s">
         <v>2637</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D49" s="56"/>
+    </row>
+    <row r="50" spans="1:4" ht="47.25" customHeight="1">
       <c r="A50" s="38">
         <v>2915</v>
       </c>
@@ -51502,8 +51577,9 @@
       <c r="C50" s="41" t="s">
         <v>2639</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D50" s="55"/>
+    </row>
+    <row r="51" spans="1:4" ht="47.25" customHeight="1">
       <c r="A51" s="38">
         <v>2787</v>
       </c>
@@ -51513,8 +51589,9 @@
       <c r="C51" s="41" t="s">
         <v>2641</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D51" s="56"/>
+    </row>
+    <row r="52" spans="1:4" ht="47.25" customHeight="1">
       <c r="A52" s="38">
         <v>3180</v>
       </c>
@@ -51524,8 +51601,9 @@
       <c r="C52" s="41" t="s">
         <v>2643</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D52" s="55"/>
+    </row>
+    <row r="53" spans="1:4" ht="31.75" customHeight="1">
       <c r="A53" s="38">
         <v>474</v>
       </c>
@@ -51535,8 +51613,9 @@
       <c r="C53" s="41" t="s">
         <v>2645</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D53" s="56"/>
+    </row>
+    <row r="54" spans="1:4" ht="31.75" customHeight="1">
       <c r="A54" s="38">
         <v>3489</v>
       </c>
@@ -51546,8 +51625,9 @@
       <c r="C54" s="41" t="s">
         <v>2647</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D54" s="55"/>
+    </row>
+    <row r="55" spans="1:4" ht="31.75" customHeight="1">
       <c r="A55" s="38">
         <v>1049</v>
       </c>
@@ -51557,8 +51637,9 @@
       <c r="C55" s="41" t="s">
         <v>2649</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D55" s="56"/>
+    </row>
+    <row r="56" spans="1:4" ht="31.75" customHeight="1">
       <c r="A56" s="38">
         <v>1774</v>
       </c>
@@ -51568,8 +51649,9 @@
       <c r="C56" s="41" t="s">
         <v>2651</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D56" s="55"/>
+    </row>
+    <row r="57" spans="1:4" ht="31.75" customHeight="1">
       <c r="A57" s="38">
         <v>879</v>
       </c>
@@ -51579,8 +51661,9 @@
       <c r="C57" s="41" t="s">
         <v>2653</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D57" s="56"/>
+    </row>
+    <row r="58" spans="1:4" ht="47.25" customHeight="1">
       <c r="A58" s="38">
         <v>3082</v>
       </c>
@@ -51590,8 +51673,9 @@
       <c r="C58" s="41" t="s">
         <v>2655</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D58" s="55"/>
+    </row>
+    <row r="59" spans="1:4" ht="31.75" customHeight="1">
       <c r="A59" s="38">
         <v>956</v>
       </c>
@@ -51601,8 +51685,9 @@
       <c r="C59" s="41" t="s">
         <v>2657</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D59" s="56"/>
+    </row>
+    <row r="60" spans="1:4" ht="31.75" customHeight="1">
       <c r="A60" s="38">
         <v>2518</v>
       </c>
@@ -51612,8 +51697,9 @@
       <c r="C60" s="41" t="s">
         <v>2659</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D60" s="55"/>
+    </row>
+    <row r="61" spans="1:4" ht="31.75" customHeight="1">
       <c r="A61" s="38">
         <v>2742</v>
       </c>
@@ -51623,8 +51709,9 @@
       <c r="C61" s="41" t="s">
         <v>2661</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D61" s="56"/>
+    </row>
+    <row r="62" spans="1:4" ht="47.25" customHeight="1">
       <c r="A62" s="38">
         <v>3287</v>
       </c>
@@ -51634,8 +51721,9 @@
       <c r="C62" s="41" t="s">
         <v>2663</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D62" s="55"/>
+    </row>
+    <row r="63" spans="1:4" ht="31.75" customHeight="1">
       <c r="A63" s="38" t="s">
         <v>2664</v>
       </c>
@@ -51645,8 +51733,9 @@
       <c r="C63" s="41" t="s">
         <v>2666</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D63" s="56"/>
+    </row>
+    <row r="64" spans="1:4" ht="31.75" customHeight="1">
       <c r="A64" s="38">
         <v>2291</v>
       </c>
@@ -51656,8 +51745,9 @@
       <c r="C64" s="41" t="s">
         <v>2668</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D64" s="55"/>
+    </row>
+    <row r="65" spans="1:4" ht="31.75" customHeight="1">
       <c r="A65" s="38">
         <v>2431</v>
       </c>
@@ -51667,8 +51757,9 @@
       <c r="C65" s="41" t="s">
         <v>2670</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D65" s="56"/>
+    </row>
+    <row r="66" spans="1:4" ht="47.25" customHeight="1">
       <c r="A66" s="38">
         <v>2189</v>
       </c>
@@ -51678,8 +51769,9 @@
       <c r="C66" s="41" t="s">
         <v>2672</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D66" s="55"/>
+    </row>
+    <row r="67" spans="1:4" ht="31.75" customHeight="1">
       <c r="A67" s="38">
         <v>322</v>
       </c>
@@ -51689,8 +51781,9 @@
       <c r="C67" s="41" t="s">
         <v>2674</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D67" s="56"/>
+    </row>
+    <row r="68" spans="1:4" ht="31.75" customHeight="1">
       <c r="A68" s="38">
         <v>518</v>
       </c>
@@ -51700,8 +51793,9 @@
       <c r="C68" s="41" t="s">
         <v>2676</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D68" s="55"/>
+    </row>
+    <row r="69" spans="1:4" ht="31.75" customHeight="1">
       <c r="A69" s="38">
         <v>279</v>
       </c>
@@ -51711,8 +51805,9 @@
       <c r="C69" s="41" t="s">
         <v>2103</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D69" s="56"/>
+    </row>
+    <row r="70" spans="1:4" ht="47.25" customHeight="1">
       <c r="A70" s="38">
         <v>1449</v>
       </c>
@@ -51722,8 +51817,9 @@
       <c r="C70" s="41" t="s">
         <v>2679</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D70" s="55"/>
+    </row>
+    <row r="71" spans="1:4" ht="47.25" customHeight="1">
       <c r="A71" s="38">
         <v>3610</v>
       </c>
@@ -51733,8 +51829,9 @@
       <c r="C71" s="41" t="s">
         <v>2681</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D71" s="56"/>
+    </row>
+    <row r="72" spans="1:4" ht="31.75" customHeight="1">
       <c r="A72" s="38">
         <v>3183</v>
       </c>
@@ -51744,8 +51841,9 @@
       <c r="C72" s="41" t="s">
         <v>2683</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D72" s="55"/>
+    </row>
+    <row r="73" spans="1:4" ht="31.75" customHeight="1">
       <c r="A73" s="38">
         <v>3592</v>
       </c>
@@ -51755,8 +51853,9 @@
       <c r="C73" s="41" t="s">
         <v>2685</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D73" s="56"/>
+    </row>
+    <row r="74" spans="1:4" ht="31.75" customHeight="1">
       <c r="A74" s="38">
         <v>2585</v>
       </c>
@@ -51766,8 +51865,9 @@
       <c r="C74" s="41" t="s">
         <v>2687</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D74" s="55"/>
+    </row>
+    <row r="75" spans="1:4" ht="31.75" customHeight="1">
       <c r="A75" s="38">
         <v>3333</v>
       </c>
@@ -51777,8 +51877,9 @@
       <c r="C75" s="41" t="s">
         <v>2689</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D75" s="56"/>
+    </row>
+    <row r="76" spans="1:4" ht="47.25" customHeight="1">
       <c r="A76" s="38">
         <v>2902</v>
       </c>
@@ -51788,8 +51889,9 @@
       <c r="C76" s="41" t="s">
         <v>2691</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D76" s="55"/>
+    </row>
+    <row r="77" spans="1:4" ht="47.25" customHeight="1">
       <c r="A77" s="38">
         <v>1155</v>
       </c>
@@ -51799,8 +51901,9 @@
       <c r="C77" s="41" t="s">
         <v>2693</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D77" s="56"/>
+    </row>
+    <row r="78" spans="1:4" ht="47.25" customHeight="1">
       <c r="A78" s="38">
         <v>1981</v>
       </c>
@@ -51810,8 +51913,9 @@
       <c r="C78" s="41" t="s">
         <v>2695</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D78" s="55"/>
+    </row>
+    <row r="79" spans="1:4" ht="47.25" customHeight="1">
       <c r="A79" s="38">
         <v>2218</v>
       </c>
@@ -51821,8 +51925,9 @@
       <c r="C79" s="41" t="s">
         <v>2697</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D79" s="56"/>
+    </row>
+    <row r="80" spans="1:4" ht="47.25" customHeight="1">
       <c r="A80" s="38">
         <v>3562</v>
       </c>
@@ -51832,8 +51937,9 @@
       <c r="C80" s="41" t="s">
         <v>2699</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D80" s="55"/>
+    </row>
+    <row r="81" spans="1:4" ht="31.75" customHeight="1">
       <c r="A81" s="38">
         <v>1143</v>
       </c>
@@ -51843,8 +51949,9 @@
       <c r="C81" s="41" t="s">
         <v>2701</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D81" s="56"/>
+    </row>
+    <row r="82" spans="1:4" ht="31.75" customHeight="1">
       <c r="A82" s="38">
         <v>583</v>
       </c>
@@ -51854,8 +51961,9 @@
       <c r="C82" s="41" t="s">
         <v>2703</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D82" s="55"/>
+    </row>
+    <row r="83" spans="1:4" ht="47.25" customHeight="1">
       <c r="A83" s="38">
         <v>712</v>
       </c>
@@ -51865,8 +51973,9 @@
       <c r="C83" s="41" t="s">
         <v>2705</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D83" s="56"/>
+    </row>
+    <row r="84" spans="1:4" ht="31.75" customHeight="1">
       <c r="A84" s="38">
         <v>72</v>
       </c>
@@ -51876,8 +51985,9 @@
       <c r="C84" s="41" t="s">
         <v>2707</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D84" s="55"/>
+    </row>
+    <row r="85" spans="1:4" ht="31.75" customHeight="1">
       <c r="A85" s="38">
         <v>1035</v>
       </c>
@@ -51887,8 +51997,9 @@
       <c r="C85" s="41" t="s">
         <v>2709</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D85" s="56"/>
+    </row>
+    <row r="86" spans="1:4" ht="47.25" customHeight="1">
       <c r="A86" s="38">
         <v>1458</v>
       </c>
@@ -51898,8 +52009,9 @@
       <c r="C86" s="41" t="s">
         <v>2711</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D86" s="55"/>
+    </row>
+    <row r="87" spans="1:4" ht="47.25" customHeight="1">
       <c r="A87" s="38">
         <v>718</v>
       </c>
@@ -51909,8 +52021,9 @@
       <c r="C87" s="41" t="s">
         <v>2713</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D87" s="56"/>
+    </row>
+    <row r="88" spans="1:4" ht="31.75" customHeight="1">
       <c r="A88" s="38">
         <v>3290</v>
       </c>
@@ -51920,8 +52033,9 @@
       <c r="C88" s="41" t="s">
         <v>2715</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D88" s="55"/>
+    </row>
+    <row r="89" spans="1:4" ht="31.75" customHeight="1">
       <c r="A89" s="38">
         <v>115</v>
       </c>
@@ -51931,8 +52045,9 @@
       <c r="C89" s="41" t="s">
         <v>2717</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D89" s="56"/>
+    </row>
+    <row r="90" spans="1:4" ht="47.25" customHeight="1">
       <c r="A90" s="38">
         <v>3316</v>
       </c>
@@ -51942,8 +52057,9 @@
       <c r="C90" s="41" t="s">
         <v>2719</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D90" s="55"/>
+    </row>
+    <row r="91" spans="1:4" ht="47.25" customHeight="1">
       <c r="A91" s="38">
         <v>1639</v>
       </c>
@@ -51953,8 +52069,9 @@
       <c r="C91" s="41" t="s">
         <v>2721</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D91" s="56"/>
+    </row>
+    <row r="92" spans="1:4" ht="31.75" customHeight="1">
       <c r="A92" s="38">
         <v>97</v>
       </c>
@@ -51964,8 +52081,9 @@
       <c r="C92" s="41" t="s">
         <v>2723</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D92" s="55"/>
+    </row>
+    <row r="93" spans="1:4" ht="31.75" customHeight="1">
       <c r="A93" s="38">
         <v>1092</v>
       </c>
@@ -51975,8 +52093,9 @@
       <c r="C93" s="41" t="s">
         <v>2725</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D93" s="56"/>
+    </row>
+    <row r="94" spans="1:4" ht="31.75" customHeight="1">
       <c r="A94" s="38">
         <v>44</v>
       </c>
@@ -51986,8 +52105,9 @@
       <c r="C94" s="41" t="s">
         <v>2727</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D94" s="55"/>
+    </row>
+    <row r="95" spans="1:4" ht="31.75" customHeight="1">
       <c r="A95" s="38">
         <v>10</v>
       </c>
@@ -51997,8 +52117,9 @@
       <c r="C95" s="41" t="s">
         <v>2729</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D95" s="56"/>
+    </row>
+    <row r="96" spans="1:4" ht="31.75" customHeight="1">
       <c r="A96" s="38">
         <v>300</v>
       </c>
@@ -52008,8 +52129,9 @@
       <c r="C96" s="41" t="s">
         <v>2731</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D96" s="55"/>
+    </row>
+    <row r="97" spans="1:4" ht="31.75" customHeight="1">
       <c r="A97" s="38">
         <v>2826</v>
       </c>
@@ -52019,8 +52141,9 @@
       <c r="C97" s="41" t="s">
         <v>2733</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D97" s="56"/>
+    </row>
+    <row r="98" spans="1:4" ht="47.25" customHeight="1">
       <c r="A98" s="38">
         <v>1671</v>
       </c>
@@ -52030,8 +52153,9 @@
       <c r="C98" s="41" t="s">
         <v>2735</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D98" s="55"/>
+    </row>
+    <row r="99" spans="1:4" ht="47.25" customHeight="1">
       <c r="A99" s="38">
         <v>1964</v>
       </c>
@@ -52041,8 +52165,9 @@
       <c r="C99" s="41" t="s">
         <v>2737</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D99" s="56"/>
+    </row>
+    <row r="100" spans="1:4" ht="47.25" customHeight="1">
       <c r="A100" s="38">
         <v>2111</v>
       </c>
@@ -52052,8 +52177,9 @@
       <c r="C100" s="41" t="s">
         <v>2739</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D100" s="55"/>
+    </row>
+    <row r="101" spans="1:4" ht="31.75" customHeight="1">
       <c r="A101" s="38">
         <v>1626</v>
       </c>
@@ -52063,8 +52189,9 @@
       <c r="C101" s="41" t="s">
         <v>2741</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D101" s="56"/>
+    </row>
+    <row r="102" spans="1:4" ht="47.25" customHeight="1">
       <c r="A102" s="38">
         <v>673</v>
       </c>
@@ -52074,8 +52201,9 @@
       <c r="C102" s="41" t="s">
         <v>2743</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D102" s="55"/>
+    </row>
+    <row r="103" spans="1:4" ht="31.75" customHeight="1">
       <c r="A103" s="38">
         <v>354</v>
       </c>
@@ -52085,8 +52213,9 @@
       <c r="C103" s="41" t="s">
         <v>2745</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D103" s="56"/>
+    </row>
+    <row r="104" spans="1:4" ht="47.25" customHeight="1">
       <c r="A104" s="38">
         <v>1691</v>
       </c>
@@ -52096,8 +52225,9 @@
       <c r="C104" s="41" t="s">
         <v>2747</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D104" s="55"/>
+    </row>
+    <row r="105" spans="1:4" ht="31.75" customHeight="1">
       <c r="A105" s="38">
         <v>960</v>
       </c>
@@ -52107,8 +52237,9 @@
       <c r="C105" s="41" t="s">
         <v>2749</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D105" s="56"/>
+    </row>
+    <row r="106" spans="1:4" ht="31.75" customHeight="1">
       <c r="A106" s="38">
         <v>2407</v>
       </c>
@@ -52118,8 +52249,9 @@
       <c r="C106" s="41" t="s">
         <v>2751</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D106" s="55"/>
+    </row>
+    <row r="107" spans="1:4" ht="31.75" customHeight="1">
       <c r="A107" s="38">
         <v>1187</v>
       </c>
@@ -52129,8 +52261,9 @@
       <c r="C107" s="41" t="s">
         <v>2753</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D107" s="56"/>
+    </row>
+    <row r="108" spans="1:4" ht="47.25" customHeight="1">
       <c r="A108" s="38">
         <v>1713</v>
       </c>
@@ -52140,8 +52273,9 @@
       <c r="C108" s="41" t="s">
         <v>2755</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D108" s="55"/>
+    </row>
+    <row r="109" spans="1:4" ht="47.25" customHeight="1">
       <c r="A109" s="38">
         <v>3288</v>
       </c>
@@ -52151,8 +52285,9 @@
       <c r="C109" s="41" t="s">
         <v>2757</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D109" s="56"/>
+    </row>
+    <row r="110" spans="1:4" ht="31.75" customHeight="1">
       <c r="A110" s="38">
         <v>368</v>
       </c>
@@ -52162,8 +52297,9 @@
       <c r="C110" s="41" t="s">
         <v>2759</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D110" s="55"/>
+    </row>
+    <row r="111" spans="1:4" ht="47.25" customHeight="1">
       <c r="A111" s="38">
         <v>2901</v>
       </c>
@@ -52173,8 +52309,9 @@
       <c r="C111" s="41" t="s">
         <v>2761</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D111" s="56"/>
+    </row>
+    <row r="112" spans="1:4" ht="47.25" customHeight="1">
       <c r="A112" s="38">
         <v>2369</v>
       </c>
@@ -52184,8 +52321,9 @@
       <c r="C112" s="41" t="s">
         <v>2763</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D112" s="55"/>
+    </row>
+    <row r="113" spans="1:4" ht="31.75" customHeight="1">
       <c r="A113" s="38">
         <v>139</v>
       </c>
@@ -52195,8 +52333,9 @@
       <c r="C113" s="41" t="s">
         <v>2765</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D113" s="56"/>
+    </row>
+    <row r="114" spans="1:4" ht="31.75" customHeight="1">
       <c r="A114" s="38">
         <v>132</v>
       </c>
@@ -52206,8 +52345,9 @@
       <c r="C114" s="41" t="s">
         <v>2767</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D114" s="55"/>
+    </row>
+    <row r="115" spans="1:4" ht="31.75" customHeight="1">
       <c r="A115" s="38">
         <v>2707</v>
       </c>
@@ -52217,8 +52357,9 @@
       <c r="C115" s="41" t="s">
         <v>2769</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D115" s="56"/>
+    </row>
+    <row r="116" spans="1:4" ht="47.25" customHeight="1">
       <c r="A116" s="38">
         <v>3196</v>
       </c>
@@ -52228,8 +52369,9 @@
       <c r="C116" s="41" t="s">
         <v>2771</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D116" s="55"/>
+    </row>
+    <row r="117" spans="1:4" ht="47.25" customHeight="1">
       <c r="A117" s="38">
         <v>2767</v>
       </c>
@@ -52239,8 +52381,9 @@
       <c r="C117" s="41" t="s">
         <v>2773</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D117" s="56"/>
+    </row>
+    <row r="118" spans="1:4" ht="31.75" customHeight="1">
       <c r="A118" s="38">
         <v>91</v>
       </c>
@@ -52250,8 +52393,9 @@
       <c r="C118" s="41" t="s">
         <v>2775</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D118" s="55"/>
+    </row>
+    <row r="119" spans="1:4" ht="31.75" customHeight="1">
       <c r="A119" s="38">
         <v>639</v>
       </c>
@@ -52261,8 +52405,9 @@
       <c r="C119" s="41" t="s">
         <v>2777</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D119" s="56"/>
+    </row>
+    <row r="120" spans="1:4" ht="47.25" customHeight="1">
       <c r="A120" s="38" t="s">
         <v>2778</v>
       </c>
@@ -52272,8 +52417,9 @@
       <c r="C120" s="41" t="s">
         <v>2780</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D120" s="55"/>
+    </row>
+    <row r="121" spans="1:4" ht="31.75" customHeight="1">
       <c r="A121" s="38">
         <v>1043</v>
       </c>
@@ -52283,8 +52429,9 @@
       <c r="C121" s="41" t="s">
         <v>2782</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D121" s="56"/>
+    </row>
+    <row r="122" spans="1:4" ht="47.25" customHeight="1">
       <c r="A122" s="38">
         <v>3144</v>
       </c>
@@ -52294,8 +52441,9 @@
       <c r="C122" s="41" t="s">
         <v>2784</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D122" s="55"/>
+    </row>
+    <row r="123" spans="1:4" ht="31.75" customHeight="1">
       <c r="A123" s="38">
         <v>1416</v>
       </c>
@@ -52305,8 +52453,9 @@
       <c r="C123" s="41" t="s">
         <v>2786</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D123" s="56"/>
+    </row>
+    <row r="124" spans="1:4" ht="47.25" customHeight="1">
       <c r="A124" s="38">
         <v>2472</v>
       </c>
@@ -52316,8 +52465,9 @@
       <c r="C124" s="41" t="s">
         <v>2788</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D124" s="55"/>
+    </row>
+    <row r="125" spans="1:4" ht="31.75" customHeight="1">
       <c r="A125" s="38">
         <v>1105</v>
       </c>
@@ -52327,8 +52477,9 @@
       <c r="C125" s="41" t="s">
         <v>2790</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D125" s="56"/>
+    </row>
+    <row r="126" spans="1:4" ht="31.75" customHeight="1">
       <c r="A126" s="38">
         <v>2547</v>
       </c>
@@ -52338,8 +52489,9 @@
       <c r="C126" s="41" t="s">
         <v>2792</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D126" s="55"/>
+    </row>
+    <row r="127" spans="1:4" ht="47.25" customHeight="1">
       <c r="A127" s="38">
         <v>3578</v>
       </c>
@@ -52349,8 +52501,9 @@
       <c r="C127" s="41" t="s">
         <v>2794</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D127" s="56"/>
+    </row>
+    <row r="128" spans="1:4" ht="31.75" customHeight="1">
       <c r="A128" s="38">
         <v>2430</v>
       </c>
@@ -52360,8 +52513,9 @@
       <c r="C128" s="41" t="s">
         <v>2796</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D128" s="55"/>
+    </row>
+    <row r="129" spans="1:4" ht="47.25" customHeight="1">
       <c r="A129" s="38">
         <v>3579</v>
       </c>
@@ -52371,8 +52525,9 @@
       <c r="C129" s="41" t="s">
         <v>2798</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D129" s="56"/>
+    </row>
+    <row r="130" spans="1:4" ht="31.75" customHeight="1">
       <c r="A130" s="38">
         <v>2463</v>
       </c>
@@ -52382,8 +52537,9 @@
       <c r="C130" s="41" t="s">
         <v>1895</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D130" s="55"/>
+    </row>
+    <row r="131" spans="1:4" ht="47.25" customHeight="1">
       <c r="A131" s="38">
         <v>3500</v>
       </c>
@@ -52393,8 +52549,9 @@
       <c r="C131" s="41" t="s">
         <v>2801</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D131" s="56"/>
+    </row>
+    <row r="132" spans="1:4" ht="31.75" customHeight="1">
       <c r="A132" s="38">
         <v>2977</v>
       </c>
@@ -52404,8 +52561,9 @@
       <c r="C132" s="41" t="s">
         <v>1823</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D132" s="55"/>
+    </row>
+    <row r="133" spans="1:4" ht="47.25" customHeight="1">
       <c r="A133" s="38">
         <v>3441</v>
       </c>
@@ -52415,8 +52573,9 @@
       <c r="C133" s="41" t="s">
         <v>2804</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D133" s="56"/>
+    </row>
+    <row r="134" spans="1:4" ht="47.25" customHeight="1">
       <c r="A134" s="38">
         <v>2052</v>
       </c>
@@ -52426,8 +52585,9 @@
       <c r="C134" s="41" t="s">
         <v>2806</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D134" s="55"/>
+    </row>
+    <row r="135" spans="1:4" ht="47.25" customHeight="1">
       <c r="A135" s="38">
         <v>2464</v>
       </c>
@@ -52437,8 +52597,9 @@
       <c r="C135" s="41" t="s">
         <v>2808</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D135" s="56"/>
+    </row>
+    <row r="136" spans="1:4" ht="31.75" customHeight="1">
       <c r="A136" s="38">
         <v>813</v>
       </c>
@@ -52448,8 +52609,9 @@
       <c r="C136" s="41" t="s">
         <v>2810</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D136" s="55"/>
+    </row>
+    <row r="137" spans="1:4" ht="47.25" customHeight="1">
       <c r="A137" s="38">
         <v>3599</v>
       </c>
@@ -52459,8 +52621,9 @@
       <c r="C137" s="41" t="s">
         <v>2812</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D137" s="56"/>
+    </row>
+    <row r="138" spans="1:4" ht="31.75" customHeight="1">
       <c r="A138" s="38">
         <v>410</v>
       </c>
@@ -52470,8 +52633,9 @@
       <c r="C138" s="41" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D138" s="55"/>
+    </row>
+    <row r="139" spans="1:4" ht="31.75" customHeight="1">
       <c r="A139" s="38">
         <v>1278</v>
       </c>
@@ -52481,8 +52645,9 @@
       <c r="C139" s="41" t="s">
         <v>2814</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D139" s="56"/>
+    </row>
+    <row r="140" spans="1:4" ht="31.75" customHeight="1">
       <c r="A140" s="38">
         <v>1745</v>
       </c>
@@ -52492,8 +52657,9 @@
       <c r="C140" s="41" t="s">
         <v>2816</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D140" s="55"/>
+    </row>
+    <row r="141" spans="1:4" ht="47.25" customHeight="1">
       <c r="A141" s="38">
         <v>1335</v>
       </c>
@@ -52503,8 +52669,9 @@
       <c r="C141" s="41" t="s">
         <v>2818</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D141" s="56"/>
+    </row>
+    <row r="142" spans="1:4" ht="31.75" customHeight="1">
       <c r="A142" s="38">
         <v>1473</v>
       </c>
@@ -52514,8 +52681,9 @@
       <c r="C142" s="41" t="s">
         <v>2820</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D142" s="55"/>
+    </row>
+    <row r="143" spans="1:4" ht="47.25" customHeight="1">
       <c r="A143" s="38">
         <v>2209</v>
       </c>
@@ -52525,8 +52693,9 @@
       <c r="C143" s="41" t="s">
         <v>2822</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D143" s="56"/>
+    </row>
+    <row r="144" spans="1:4" ht="31.75" customHeight="1">
       <c r="A144" s="38">
         <v>1478</v>
       </c>
@@ -52536,8 +52705,9 @@
       <c r="C144" s="41" t="s">
         <v>2824</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D144" s="55"/>
+    </row>
+    <row r="145" spans="1:4" ht="47.25" customHeight="1">
       <c r="A145" s="38">
         <v>3473</v>
       </c>
@@ -52547,8 +52717,9 @@
       <c r="C145" s="41" t="s">
         <v>2826</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D145" s="56"/>
+    </row>
+    <row r="146" spans="1:4" ht="47.25" customHeight="1">
       <c r="A146" s="38">
         <v>1959</v>
       </c>
@@ -52558,8 +52729,9 @@
       <c r="C146" s="41" t="s">
         <v>2828</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D146" s="55"/>
+    </row>
+    <row r="147" spans="1:4" ht="31.75" customHeight="1">
       <c r="A147" s="38">
         <v>2478</v>
       </c>
@@ -52569,8 +52741,9 @@
       <c r="C147" s="41" t="s">
         <v>2830</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D147" s="56"/>
+    </row>
+    <row r="148" spans="1:4" ht="47.25" customHeight="1">
       <c r="A148" s="38">
         <v>3538</v>
       </c>
@@ -52580,8 +52753,9 @@
       <c r="C148" s="41" t="s">
         <v>2832</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D148" s="55"/>
+    </row>
+    <row r="149" spans="1:4" ht="47.25" customHeight="1">
       <c r="A149" s="38">
         <v>3505</v>
       </c>
@@ -52591,8 +52765,9 @@
       <c r="C149" s="41" t="s">
         <v>2834</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D149" s="56"/>
+    </row>
+    <row r="150" spans="1:4" ht="47.25" customHeight="1">
       <c r="A150" s="38">
         <v>3077</v>
       </c>
@@ -52602,8 +52777,9 @@
       <c r="C150" s="41" t="s">
         <v>2836</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D150" s="55"/>
+    </row>
+    <row r="151" spans="1:4" ht="47.25" customHeight="1">
       <c r="A151" s="38">
         <v>2911</v>
       </c>
@@ -52613,8 +52789,9 @@
       <c r="C151" s="41" t="s">
         <v>2838</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D151" s="56"/>
+    </row>
+    <row r="152" spans="1:4" ht="47.25" customHeight="1">
       <c r="A152" s="38">
         <v>3117</v>
       </c>
@@ -52624,8 +52801,9 @@
       <c r="C152" s="41" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D152" s="55"/>
+    </row>
+    <row r="153" spans="1:4" ht="31.75" customHeight="1">
       <c r="A153" s="38">
         <v>121</v>
       </c>
@@ -52635,8 +52813,9 @@
       <c r="C153" s="41" t="s">
         <v>2841</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D153" s="56"/>
+    </row>
+    <row r="154" spans="1:4" ht="31.75" customHeight="1">
       <c r="A154" s="38">
         <v>122</v>
       </c>
@@ -52646,8 +52825,9 @@
       <c r="C154" s="41" t="s">
         <v>2843</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D154" s="55"/>
+    </row>
+    <row r="155" spans="1:4" ht="31.75" customHeight="1">
       <c r="A155" s="38">
         <v>123</v>
       </c>
@@ -52657,8 +52837,9 @@
       <c r="C155" s="41" t="s">
         <v>2845</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D155" s="56"/>
+    </row>
+    <row r="156" spans="1:4" ht="31.75" customHeight="1">
       <c r="A156" s="38">
         <v>188</v>
       </c>
@@ -52668,8 +52849,9 @@
       <c r="C156" s="41" t="s">
         <v>2847</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D156" s="55"/>
+    </row>
+    <row r="157" spans="1:4" ht="31.75" customHeight="1">
       <c r="A157" s="38">
         <v>3573</v>
       </c>
@@ -52679,8 +52861,9 @@
       <c r="C157" s="41" t="s">
         <v>2849</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D157" s="56"/>
+    </row>
+    <row r="158" spans="1:4" ht="47.25" customHeight="1">
       <c r="A158" s="38">
         <v>309</v>
       </c>
@@ -52690,8 +52873,9 @@
       <c r="C158" s="41" t="s">
         <v>2851</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D158" s="55"/>
+    </row>
+    <row r="159" spans="1:4" ht="47.25" customHeight="1">
       <c r="A159" s="38">
         <v>714</v>
       </c>
@@ -52701,8 +52885,9 @@
       <c r="C159" s="41" t="s">
         <v>2853</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D159" s="56"/>
+    </row>
+    <row r="160" spans="1:4" ht="47.25" customHeight="1">
       <c r="A160" s="38">
         <v>3259</v>
       </c>
@@ -52712,8 +52897,9 @@
       <c r="C160" s="41" t="s">
         <v>2855</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D160" s="55"/>
+    </row>
+    <row r="161" spans="1:4" ht="31.75" customHeight="1">
       <c r="A161" s="38">
         <v>2708</v>
       </c>
@@ -52723,8 +52909,9 @@
       <c r="C161" s="41" t="s">
         <v>2857</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D161" s="56"/>
+    </row>
+    <row r="162" spans="1:4" ht="47.25" customHeight="1">
       <c r="A162" s="38">
         <v>1567</v>
       </c>
@@ -52734,8 +52921,9 @@
       <c r="C162" s="41" t="s">
         <v>2859</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D162" s="55"/>
+    </row>
+    <row r="163" spans="1:4" ht="47.25" customHeight="1">
       <c r="A163" s="38">
         <v>2786</v>
       </c>
@@ -52745,8 +52933,9 @@
       <c r="C163" s="41" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D163" s="56"/>
+    </row>
+    <row r="164" spans="1:4" ht="47.25" customHeight="1">
       <c r="A164" s="38">
         <v>1911</v>
       </c>
@@ -52756,8 +52945,9 @@
       <c r="C164" s="41" t="s">
         <v>2863</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D164" s="55"/>
+    </row>
+    <row r="165" spans="1:4" ht="31.75" customHeight="1">
       <c r="A165" s="38">
         <v>376</v>
       </c>
@@ -52767,8 +52957,9 @@
       <c r="C165" s="41" t="s">
         <v>2865</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D165" s="56"/>
+    </row>
+    <row r="166" spans="1:4" ht="47.25" customHeight="1">
       <c r="A166" s="38">
         <v>3466</v>
       </c>
@@ -52778,8 +52969,9 @@
       <c r="C166" s="41" t="s">
         <v>2867</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D166" s="55"/>
+    </row>
+    <row r="167" spans="1:4" ht="47.25" customHeight="1">
       <c r="A167" s="38">
         <v>2771</v>
       </c>
@@ -52789,8 +52981,9 @@
       <c r="C167" s="41" t="s">
         <v>2869</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D167" s="56"/>
+    </row>
+    <row r="168" spans="1:4" ht="47.25" customHeight="1">
       <c r="A168" s="38">
         <v>1594</v>
       </c>
@@ -52800,8 +52993,9 @@
       <c r="C168" s="41" t="s">
         <v>2610</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D168" s="55"/>
+    </row>
+    <row r="169" spans="1:4" ht="47.25" customHeight="1">
       <c r="A169" s="38">
         <v>3196</v>
       </c>
@@ -52811,8 +53005,9 @@
       <c r="C169" s="41" t="s">
         <v>2771</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D169" s="56"/>
+    </row>
+    <row r="170" spans="1:4" ht="31.75" customHeight="1">
       <c r="A170" s="38">
         <v>935</v>
       </c>
@@ -52822,8 +53017,9 @@
       <c r="C170" s="41" t="s">
         <v>2873</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D170" s="55"/>
+    </row>
+    <row r="171" spans="1:4" ht="31.75" customHeight="1">
       <c r="A171" s="38">
         <v>1537</v>
       </c>
@@ -52833,8 +53029,9 @@
       <c r="C171" s="41" t="s">
         <v>2875</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D171" s="56"/>
+    </row>
+    <row r="172" spans="1:4" ht="47.25" customHeight="1">
       <c r="A172" s="38">
         <v>2919</v>
       </c>
@@ -52844,8 +53041,9 @@
       <c r="C172" s="41" t="s">
         <v>2877</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D172" s="55"/>
+    </row>
+    <row r="173" spans="1:4" ht="47.25" customHeight="1">
       <c r="A173" s="38">
         <v>801</v>
       </c>
@@ -52855,8 +53053,9 @@
       <c r="C173" s="41" t="s">
         <v>2879</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D173" s="56"/>
+    </row>
+    <row r="174" spans="1:4" ht="47.25" customHeight="1">
       <c r="A174" s="38">
         <v>3434</v>
       </c>
@@ -52866,8 +53065,9 @@
       <c r="C174" s="41" t="s">
         <v>2881</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D174" s="55"/>
+    </row>
+    <row r="175" spans="1:4" ht="47.25" customHeight="1">
       <c r="A175" s="38">
         <v>1955</v>
       </c>
@@ -52877,8 +53077,9 @@
       <c r="C175" s="41" t="s">
         <v>2883</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D175" s="56"/>
+    </row>
+    <row r="176" spans="1:4" ht="31.75" customHeight="1">
       <c r="A176" s="38">
         <v>3068</v>
       </c>
@@ -52888,8 +53089,9 @@
       <c r="C176" s="41" t="s">
         <v>2885</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D176" s="55"/>
+    </row>
+    <row r="177" spans="1:4" ht="47.25" customHeight="1">
       <c r="A177" s="38">
         <v>2272</v>
       </c>
@@ -52899,8 +53101,9 @@
       <c r="C177" s="41" t="s">
         <v>2887</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D177" s="56"/>
+    </row>
+    <row r="178" spans="1:4" ht="31.75" customHeight="1">
       <c r="A178" s="38" t="s">
         <v>2888</v>
       </c>
@@ -52910,8 +53113,9 @@
       <c r="C178" s="41" t="s">
         <v>2890</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D178" s="55"/>
+    </row>
+    <row r="179" spans="1:4" ht="31.75" customHeight="1">
       <c r="A179" s="38">
         <v>276</v>
       </c>
@@ -52921,8 +53125,9 @@
       <c r="C179" s="41" t="s">
         <v>2892</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D179" s="56"/>
+    </row>
+    <row r="180" spans="1:4" ht="47.25" customHeight="1">
       <c r="A180" s="38">
         <v>1746</v>
       </c>
@@ -52932,8 +53137,9 @@
       <c r="C180" s="41" t="s">
         <v>2894</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D180" s="55"/>
+    </row>
+    <row r="181" spans="1:4" ht="47.25" customHeight="1">
       <c r="A181" s="38">
         <v>2036</v>
       </c>
@@ -52943,8 +53149,9 @@
       <c r="C181" s="41" t="s">
         <v>2896</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D181" s="56"/>
+    </row>
+    <row r="182" spans="1:4" ht="47.25" customHeight="1">
       <c r="A182" s="38">
         <v>2361</v>
       </c>
@@ -52954,8 +53161,9 @@
       <c r="C182" s="41" t="s">
         <v>2898</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D182" s="55"/>
+    </row>
+    <row r="183" spans="1:4" ht="31.75" customHeight="1">
       <c r="A183" s="38">
         <v>3269</v>
       </c>
@@ -52965,8 +53173,9 @@
       <c r="C183" s="41" t="s">
         <v>2900</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D183" s="56"/>
+    </row>
+    <row r="184" spans="1:4" ht="47.25" customHeight="1">
       <c r="A184" s="38">
         <v>2944</v>
       </c>
@@ -52976,8 +53185,9 @@
       <c r="C184" s="41" t="s">
         <v>2902</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D184" s="55"/>
+    </row>
+    <row r="185" spans="1:4" ht="31.75" customHeight="1">
       <c r="A185" s="38">
         <v>2140</v>
       </c>
@@ -52987,8 +53197,9 @@
       <c r="C185" s="41" t="s">
         <v>2569</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D185" s="56"/>
+    </row>
+    <row r="186" spans="1:4" ht="31.75" customHeight="1">
       <c r="A186" s="38">
         <v>983</v>
       </c>
@@ -52998,8 +53209,9 @@
       <c r="C186" s="41" t="s">
         <v>2905</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D186" s="55"/>
+    </row>
+    <row r="187" spans="1:4" ht="31.75" customHeight="1">
       <c r="A187" s="38">
         <v>368</v>
       </c>
@@ -53009,8 +53221,9 @@
       <c r="C187" s="41" t="s">
         <v>2759</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D187" s="56"/>
+    </row>
+    <row r="188" spans="1:4" ht="47.25" customHeight="1">
       <c r="A188" s="38">
         <v>2901</v>
       </c>
@@ -53020,8 +53233,9 @@
       <c r="C188" s="41" t="s">
         <v>2761</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D188" s="55"/>
+    </row>
+    <row r="189" spans="1:4" ht="31.75" customHeight="1">
       <c r="A189" s="38">
         <v>650</v>
       </c>
@@ -53031,8 +53245,9 @@
       <c r="C189" s="41" t="s">
         <v>2909</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D189" s="56"/>
+    </row>
+    <row r="190" spans="1:4" ht="47.25" customHeight="1">
       <c r="A190" s="38">
         <v>871</v>
       </c>
@@ -53042,8 +53257,9 @@
       <c r="C190" s="41" t="s">
         <v>2911</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D190" s="55"/>
+    </row>
+    <row r="191" spans="1:4" ht="47.25" customHeight="1">
       <c r="A191" s="38">
         <v>2896</v>
       </c>
@@ -53053,8 +53269,9 @@
       <c r="C191" s="41" t="s">
         <v>2913</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D191" s="56"/>
+    </row>
+    <row r="192" spans="1:4" ht="47.25" customHeight="1">
       <c r="A192" s="38">
         <v>2167</v>
       </c>
@@ -53064,8 +53281,9 @@
       <c r="C192" s="41" t="s">
         <v>2915</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D192" s="55"/>
+    </row>
+    <row r="193" spans="1:4" ht="31.75" customHeight="1">
       <c r="A193" s="38">
         <v>2188</v>
       </c>
@@ -53075,8 +53293,9 @@
       <c r="C193" s="41" t="s">
         <v>2917</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D193" s="56"/>
+    </row>
+    <row r="194" spans="1:4" ht="31.75" customHeight="1">
       <c r="A194" s="38">
         <v>818</v>
       </c>
@@ -53086,8 +53305,9 @@
       <c r="C194" s="41" t="s">
         <v>1789</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D194" s="55"/>
+    </row>
+    <row r="195" spans="1:4" ht="47.25" customHeight="1">
       <c r="A195" s="38">
         <v>3389</v>
       </c>
@@ -53097,8 +53317,9 @@
       <c r="C195" s="41" t="s">
         <v>2920</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D195" s="56"/>
+    </row>
+    <row r="196" spans="1:4" ht="47.25" customHeight="1">
       <c r="A196" s="38">
         <v>3464</v>
       </c>
@@ -53108,8 +53329,9 @@
       <c r="C196" s="41" t="s">
         <v>2921</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D196" s="55"/>
+    </row>
+    <row r="197" spans="1:4" ht="31.75" customHeight="1">
       <c r="A197" s="38">
         <v>3205</v>
       </c>
@@ -53119,8 +53341,9 @@
       <c r="C197" s="41" t="s">
         <v>2923</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D197" s="56"/>
+    </row>
+    <row r="198" spans="1:4" ht="31.75" customHeight="1">
       <c r="A198" s="38">
         <v>1259</v>
       </c>
@@ -53130,8 +53353,9 @@
       <c r="C198" s="41" t="s">
         <v>2925</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D198" s="55"/>
+    </row>
+    <row r="199" spans="1:4" ht="31.75" customHeight="1">
       <c r="A199" s="38">
         <v>2597</v>
       </c>
@@ -53141,8 +53365,9 @@
       <c r="C199" s="41" t="s">
         <v>2927</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D199" s="56"/>
+    </row>
+    <row r="200" spans="1:4" ht="47.25" customHeight="1">
       <c r="A200" s="38">
         <v>2638</v>
       </c>
@@ -53152,8 +53377,9 @@
       <c r="C200" s="41" t="s">
         <v>2929</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D200" s="55"/>
+    </row>
+    <row r="201" spans="1:4" ht="47.25" customHeight="1">
       <c r="A201" s="38">
         <v>2830</v>
       </c>
@@ -53163,8 +53389,9 @@
       <c r="C201" s="41" t="s">
         <v>2931</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D201" s="56"/>
+    </row>
+    <row r="202" spans="1:4" ht="47.25" customHeight="1">
       <c r="A202" s="38">
         <v>2008</v>
       </c>
@@ -53174,8 +53401,9 @@
       <c r="C202" s="41" t="s">
         <v>2933</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D202" s="55"/>
+    </row>
+    <row r="203" spans="1:4" ht="31.75" customHeight="1">
       <c r="A203" s="38">
         <v>2054</v>
       </c>
@@ -53185,8 +53413,9 @@
       <c r="C203" s="41" t="s">
         <v>2935</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D203" s="56"/>
+    </row>
+    <row r="204" spans="1:4" ht="31.75" customHeight="1">
       <c r="A204" s="38">
         <v>1235</v>
       </c>
@@ -53196,8 +53425,9 @@
       <c r="C204" s="41" t="s">
         <v>2937</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D204" s="55"/>
+    </row>
+    <row r="205" spans="1:4" ht="47.25" customHeight="1">
       <c r="A205" s="38">
         <v>1751</v>
       </c>
@@ -53207,8 +53437,9 @@
       <c r="C205" s="41" t="s">
         <v>2939</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D205" s="56"/>
+    </row>
+    <row r="206" spans="1:4" ht="47.25" customHeight="1">
       <c r="A206" s="38">
         <v>3414</v>
       </c>
@@ -53218,8 +53449,9 @@
       <c r="C206" s="41" t="s">
         <v>2941</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D206" s="55"/>
+    </row>
+    <row r="207" spans="1:4" ht="31.75" customHeight="1">
       <c r="A207" s="38">
         <v>53</v>
       </c>
@@ -53229,8 +53461,9 @@
       <c r="C207" s="41" t="s">
         <v>2571</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D207" s="56"/>
+    </row>
+    <row r="208" spans="1:4" ht="31.75" customHeight="1">
       <c r="A208" s="38">
         <v>152</v>
       </c>
@@ -53240,8 +53473,9 @@
       <c r="C208" s="41" t="s">
         <v>2583</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D208" s="55"/>
+    </row>
+    <row r="209" spans="1:4" ht="31.75" customHeight="1">
       <c r="A209" s="38">
         <v>3524</v>
       </c>
@@ -53251,8 +53485,9 @@
       <c r="C209" s="41" t="s">
         <v>2945</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D209" s="56"/>
+    </row>
+    <row r="210" spans="1:4" ht="47.25" customHeight="1">
       <c r="A210" s="38">
         <v>3448</v>
       </c>
@@ -53262,8 +53497,9 @@
       <c r="C210" s="41" t="s">
         <v>2947</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D210" s="55"/>
+    </row>
+    <row r="211" spans="1:4" ht="31.75" customHeight="1">
       <c r="A211" s="38">
         <v>2262</v>
       </c>
@@ -53273,8 +53509,9 @@
       <c r="C211" s="41" t="s">
         <v>2949</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D211" s="56"/>
+    </row>
+    <row r="212" spans="1:4" ht="47.25" customHeight="1">
       <c r="A212" s="38">
         <v>828</v>
       </c>
@@ -53284,8 +53521,9 @@
       <c r="C212" s="41" t="s">
         <v>2951</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D212" s="55"/>
+    </row>
+    <row r="213" spans="1:4" ht="47.25" customHeight="1">
       <c r="A213" s="38">
         <v>467</v>
       </c>
@@ -53295,8 +53533,9 @@
       <c r="C213" s="41" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D213" s="56"/>
+    </row>
+    <row r="214" spans="1:4" ht="31.75" customHeight="1">
       <c r="A214" s="38">
         <v>2501</v>
       </c>
@@ -53306,8 +53545,9 @@
       <c r="C214" s="41" t="s">
         <v>2954</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D214" s="55"/>
+    </row>
+    <row r="215" spans="1:4" ht="47.25" customHeight="1">
       <c r="A215" s="38">
         <v>1218</v>
       </c>
@@ -53317,8 +53557,9 @@
       <c r="C215" s="41" t="s">
         <v>2956</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D215" s="56"/>
+    </row>
+    <row r="216" spans="1:4" ht="31.75" customHeight="1">
       <c r="A216" s="38">
         <v>2826</v>
       </c>
@@ -53328,8 +53569,9 @@
       <c r="C216" s="41" t="s">
         <v>2733</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D216" s="55"/>
+    </row>
+    <row r="217" spans="1:4" ht="31.75" customHeight="1">
       <c r="A217" s="38">
         <v>1027</v>
       </c>
@@ -53339,8 +53581,9 @@
       <c r="C217" s="41" t="s">
         <v>2959</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D217" s="56"/>
+    </row>
+    <row r="218" spans="1:4" ht="31.75" customHeight="1">
       <c r="A218" s="38">
         <v>2370</v>
       </c>
@@ -53350,8 +53593,9 @@
       <c r="C218" s="41" t="s">
         <v>2961</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D218" s="55"/>
+    </row>
+    <row r="219" spans="1:4" ht="47.25" customHeight="1">
       <c r="A219" s="38">
         <v>873</v>
       </c>
@@ -53361,8 +53605,9 @@
       <c r="C219" s="41" t="s">
         <v>2963</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D219" s="56"/>
+    </row>
+    <row r="220" spans="1:4" ht="47.25" customHeight="1">
       <c r="A220" s="38">
         <v>3202</v>
       </c>
@@ -53372,8 +53617,9 @@
       <c r="C220" s="41" t="s">
         <v>2965</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D220" s="57"/>
+    </row>
+    <row r="221" spans="1:4" ht="31.75" customHeight="1">
       <c r="A221" s="38">
         <v>446</v>
       </c>
@@ -53383,8 +53629,9 @@
       <c r="C221" s="41" t="s">
         <v>2967</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D221" s="57"/>
+    </row>
+    <row r="222" spans="1:4" ht="47.25" customHeight="1">
       <c r="A222" s="38">
         <v>3351</v>
       </c>
@@ -53394,8 +53641,9 @@
       <c r="C222" s="41" t="s">
         <v>2969</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D222" s="57"/>
+    </row>
+    <row r="223" spans="1:4" ht="47.25" customHeight="1">
       <c r="A223" s="38">
         <v>3041</v>
       </c>
@@ -53405,8 +53653,9 @@
       <c r="C223" s="41" t="s">
         <v>2971</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D223" s="57"/>
+    </row>
+    <row r="224" spans="1:4" ht="47.25" customHeight="1">
       <c r="A224" s="38">
         <v>3409</v>
       </c>
@@ -53416,8 +53665,9 @@
       <c r="C224" s="41" t="s">
         <v>2973</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D224" s="57"/>
+    </row>
+    <row r="225" spans="1:4" ht="47.25" customHeight="1">
       <c r="A225" s="38">
         <v>3098</v>
       </c>
@@ -53427,8 +53677,9 @@
       <c r="C225" s="41" t="s">
         <v>2655</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D225" s="57"/>
+    </row>
+    <row r="226" spans="1:4" ht="31.75" customHeight="1">
       <c r="A226" s="38">
         <v>3299</v>
       </c>
@@ -53438,8 +53689,9 @@
       <c r="C226" s="41" t="s">
         <v>2976</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D226" s="57"/>
+    </row>
+    <row r="227" spans="1:4" ht="31.75" customHeight="1">
       <c r="A227" s="38">
         <v>1048</v>
       </c>
@@ -53449,8 +53701,9 @@
       <c r="C227" s="41" t="s">
         <v>2978</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D227" s="57"/>
+    </row>
+    <row r="228" spans="1:4" ht="31.75" customHeight="1">
       <c r="A228" s="38">
         <v>940</v>
       </c>
@@ -53460,8 +53713,9 @@
       <c r="C228" s="41" t="s">
         <v>2980</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D228" s="57"/>
+    </row>
+    <row r="229" spans="1:4" ht="47.25" customHeight="1">
       <c r="A229" s="38">
         <v>1987</v>
       </c>
@@ -53471,8 +53725,9 @@
       <c r="C229" s="41" t="s">
         <v>2982</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D229" s="57"/>
+    </row>
+    <row r="230" spans="1:4" ht="47.25" customHeight="1">
       <c r="A230" s="38">
         <v>3148</v>
       </c>
@@ -53482,8 +53737,9 @@
       <c r="C230" s="41" t="s">
         <v>2984</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D230" s="57"/>
+    </row>
+    <row r="231" spans="1:4" ht="31.75" customHeight="1">
       <c r="A231" s="38">
         <v>221</v>
       </c>
@@ -53493,8 +53749,9 @@
       <c r="C231" s="41" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D231" s="57"/>
+    </row>
+    <row r="232" spans="1:4" ht="47.25" customHeight="1">
       <c r="A232" s="38">
         <v>1277</v>
       </c>
@@ -53504,8 +53761,9 @@
       <c r="C232" s="41" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D232" s="57"/>
+    </row>
+    <row r="233" spans="1:4" ht="31.75" customHeight="1">
       <c r="A233" s="38">
         <v>2088</v>
       </c>
@@ -53515,8 +53773,9 @@
       <c r="C233" s="41" t="s">
         <v>2986</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D233" s="57"/>
+    </row>
+    <row r="234" spans="1:4" ht="47.25" customHeight="1">
       <c r="A234" s="38">
         <v>3197</v>
       </c>
@@ -53526,8 +53785,9 @@
       <c r="C234" s="41" t="s">
         <v>2988</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D234" s="57"/>
+    </row>
+    <row r="235" spans="1:4" ht="47.25" customHeight="1">
       <c r="A235" s="38">
         <v>2222</v>
       </c>
@@ -53537,8 +53797,9 @@
       <c r="C235" s="41" t="s">
         <v>2990</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D235" s="57"/>
+    </row>
+    <row r="236" spans="1:4" ht="47.25" customHeight="1">
       <c r="A236" s="38">
         <v>2400</v>
       </c>
@@ -53548,8 +53809,9 @@
       <c r="C236" s="41" t="s">
         <v>2157</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D236" s="57"/>
+    </row>
+    <row r="237" spans="1:4" ht="31.75" customHeight="1">
       <c r="A237" s="38">
         <v>1262</v>
       </c>
@@ -53559,8 +53821,9 @@
       <c r="C237" s="41" t="s">
         <v>2993</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D237" s="57"/>
+    </row>
+    <row r="238" spans="1:4" ht="47.25" customHeight="1">
       <c r="A238" s="38">
         <v>3332</v>
       </c>
@@ -53570,8 +53833,9 @@
       <c r="C238" s="41" t="s">
         <v>2995</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D238" s="57"/>
+    </row>
+    <row r="239" spans="1:4" ht="47.25" customHeight="1">
       <c r="A239" s="38">
         <v>3176</v>
       </c>
@@ -53581,8 +53845,9 @@
       <c r="C239" s="41" t="s">
         <v>2997</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D239" s="57"/>
+    </row>
+    <row r="240" spans="1:4" ht="47.25" customHeight="1">
       <c r="A240" s="38">
         <v>1269</v>
       </c>
@@ -53592,8 +53857,9 @@
       <c r="C240" s="41" t="s">
         <v>2999</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D240" s="57"/>
+    </row>
+    <row r="241" spans="1:4" ht="31.75" customHeight="1">
       <c r="A241" s="38">
         <v>3250</v>
       </c>
@@ -53603,8 +53869,9 @@
       <c r="C241" s="41" t="s">
         <v>3001</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D241" s="57"/>
+    </row>
+    <row r="242" spans="1:4" ht="31.75" customHeight="1">
       <c r="A242" s="38">
         <v>3218</v>
       </c>
@@ -53614,8 +53881,9 @@
       <c r="C242" s="41" t="s">
         <v>3003</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D242" s="57"/>
+    </row>
+    <row r="243" spans="1:4" ht="47.25" customHeight="1">
       <c r="A243" s="38">
         <v>3122</v>
       </c>
@@ -53625,8 +53893,9 @@
       <c r="C243" s="41" t="s">
         <v>3005</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D243" s="57"/>
+    </row>
+    <row r="244" spans="1:4" ht="31.75" customHeight="1">
       <c r="A244" s="38">
         <v>576</v>
       </c>
@@ -53636,8 +53905,9 @@
       <c r="C244" s="41" t="s">
         <v>3007</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D244" s="57"/>
+    </row>
+    <row r="245" spans="1:4" ht="31.75" customHeight="1">
       <c r="A245" s="38">
         <v>403</v>
       </c>
@@ -53647,8 +53917,9 @@
       <c r="C245" s="41" t="s">
         <v>3009</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D245" s="57"/>
+    </row>
+    <row r="246" spans="1:4" ht="31.75" customHeight="1">
       <c r="A246" s="38">
         <v>1223</v>
       </c>
@@ -53658,8 +53929,9 @@
       <c r="C246" s="41" t="s">
         <v>3011</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D246" s="57"/>
+    </row>
+    <row r="247" spans="1:4" ht="47.25" customHeight="1">
       <c r="A247" s="38">
         <v>1320</v>
       </c>
@@ -53669,8 +53941,9 @@
       <c r="C247" s="41" t="s">
         <v>3013</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D247" s="57"/>
+    </row>
+    <row r="248" spans="1:4" ht="31.75" customHeight="1">
       <c r="A248" s="38">
         <v>3366</v>
       </c>
@@ -53680,8 +53953,9 @@
       <c r="C248" s="41" t="s">
         <v>3015</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D248" s="57"/>
+    </row>
+    <row r="249" spans="1:4" ht="31.75" customHeight="1">
       <c r="A249" s="38">
         <v>1575</v>
       </c>
@@ -53691,8 +53965,9 @@
       <c r="C249" s="41" t="s">
         <v>2203</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D249" s="57"/>
+    </row>
+    <row r="250" spans="1:4" ht="47.25" customHeight="1">
       <c r="A250" s="38">
         <v>3154</v>
       </c>
@@ -53702,8 +53977,9 @@
       <c r="C250" s="41" t="s">
         <v>3018</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D250" s="57"/>
+    </row>
+    <row r="251" spans="1:4" ht="47.25" customHeight="1">
       <c r="A251" s="38">
         <v>2318</v>
       </c>
@@ -53713,8 +53989,9 @@
       <c r="C251" s="41" t="s">
         <v>3020</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D251" s="57"/>
+    </row>
+    <row r="252" spans="1:4" ht="47.25" customHeight="1">
       <c r="A252" s="38">
         <v>3469</v>
       </c>
@@ -53724,8 +54001,9 @@
       <c r="C252" s="41" t="s">
         <v>3022</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D252" s="57"/>
+    </row>
+    <row r="253" spans="1:4" ht="47.25" customHeight="1">
       <c r="A253" s="38">
         <v>2746</v>
       </c>
@@ -53735,8 +54013,9 @@
       <c r="C253" s="41" t="s">
         <v>3024</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D253" s="57"/>
+    </row>
+    <row r="254" spans="1:4" ht="47.25" customHeight="1">
       <c r="A254" s="38">
         <v>1444</v>
       </c>
@@ -53746,8 +54025,9 @@
       <c r="C254" s="41" t="s">
         <v>3026</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D254" s="57"/>
+    </row>
+    <row r="255" spans="1:4" ht="47.25" customHeight="1">
       <c r="A255" s="38">
         <v>3320</v>
       </c>
@@ -53757,8 +54037,9 @@
       <c r="C255" s="41" t="s">
         <v>3028</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D255" s="57"/>
+    </row>
+    <row r="256" spans="1:4" ht="31.75" customHeight="1">
       <c r="A256" s="38">
         <v>3429</v>
       </c>
@@ -53768,8 +54049,9 @@
       <c r="C256" s="41" t="s">
         <v>3030</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D256" s="57"/>
+    </row>
+    <row r="257" spans="1:4" ht="47.25" customHeight="1">
       <c r="A257" s="38">
         <v>1420</v>
       </c>
@@ -53779,8 +54061,9 @@
       <c r="C257" s="41" t="s">
         <v>3032</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D257" s="57"/>
+    </row>
+    <row r="258" spans="1:4" ht="31.75" customHeight="1">
       <c r="A258" s="38">
         <v>3193</v>
       </c>
@@ -53790,8 +54073,9 @@
       <c r="C258" s="41" t="s">
         <v>3034</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D258" s="57"/>
+    </row>
+    <row r="259" spans="1:4" ht="31.75" customHeight="1">
       <c r="A259" s="38">
         <v>1079</v>
       </c>
@@ -53801,8 +54085,9 @@
       <c r="C259" s="41" t="s">
         <v>3036</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D259" s="57"/>
+    </row>
+    <row r="260" spans="1:4" ht="47.25" customHeight="1">
       <c r="A260" s="38">
         <v>1866</v>
       </c>
@@ -53812,8 +54097,9 @@
       <c r="C260" s="41" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D260" s="57"/>
+    </row>
+    <row r="261" spans="1:4" ht="31.75" customHeight="1">
       <c r="A261" s="38">
         <v>2312</v>
       </c>
@@ -53823,8 +54109,9 @@
       <c r="C261" s="41" t="s">
         <v>3039</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D261" s="57"/>
+    </row>
+    <row r="262" spans="1:4" ht="47.25" customHeight="1">
       <c r="A262" s="38">
         <v>3177</v>
       </c>
@@ -53834,8 +54121,9 @@
       <c r="C262" s="41" t="s">
         <v>3041</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D262" s="57"/>
+    </row>
+    <row r="263" spans="1:4" ht="47.25" customHeight="1">
       <c r="A263" s="38">
         <v>1884</v>
       </c>
@@ -53845,8 +54133,9 @@
       <c r="C263" s="41" t="s">
         <v>3043</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D263" s="57"/>
+    </row>
+    <row r="264" spans="1:4" ht="31.75" customHeight="1">
       <c r="A264" s="38">
         <v>887</v>
       </c>
@@ -53856,8 +54145,9 @@
       <c r="C264" s="41" t="s">
         <v>3045</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D264" s="57"/>
+    </row>
+    <row r="265" spans="1:4" ht="31.75" customHeight="1">
       <c r="A265" s="38">
         <v>920</v>
       </c>
@@ -53867,8 +54157,9 @@
       <c r="C265" s="41" t="s">
         <v>2226</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D265" s="57"/>
+    </row>
+    <row r="266" spans="1:4" ht="31.75" customHeight="1">
       <c r="A266" s="38">
         <v>514</v>
       </c>
@@ -53878,8 +54169,9 @@
       <c r="C266" s="41" t="s">
         <v>3048</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D266" s="57"/>
+    </row>
+    <row r="267" spans="1:4" ht="47.25" customHeight="1">
       <c r="A267" s="38">
         <v>3336</v>
       </c>
@@ -53889,8 +54181,9 @@
       <c r="C267" s="41" t="s">
         <v>3050</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D267" s="57"/>
+    </row>
+    <row r="268" spans="1:4" ht="31.75" customHeight="1">
       <c r="A268" s="38">
         <v>1388</v>
       </c>
@@ -53900,8 +54193,9 @@
       <c r="C268" s="41" t="s">
         <v>3052</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D268" s="57"/>
+    </row>
+    <row r="269" spans="1:4" ht="47.25" customHeight="1">
       <c r="A269" s="38">
         <v>903</v>
       </c>
@@ -53911,8 +54205,9 @@
       <c r="C269" s="41" t="s">
         <v>3054</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D269" s="57"/>
+    </row>
+    <row r="270" spans="1:4" ht="31.75" customHeight="1">
       <c r="A270" s="38">
         <v>1900</v>
       </c>
@@ -53922,8 +54217,9 @@
       <c r="C270" s="41" t="s">
         <v>2741</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D270" s="57"/>
+    </row>
+    <row r="271" spans="1:4" ht="31.75" customHeight="1">
       <c r="A271" s="38">
         <v>1531</v>
       </c>
@@ -53933,8 +54229,9 @@
       <c r="C271" s="41" t="s">
         <v>3057</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D271" s="57"/>
+    </row>
+    <row r="272" spans="1:4" ht="47.25" customHeight="1">
       <c r="A272" s="38">
         <v>1883</v>
       </c>
@@ -53944,8 +54241,9 @@
       <c r="C272" s="41" t="s">
         <v>3059</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D272" s="57"/>
+    </row>
+    <row r="273" spans="1:4" ht="47.25" customHeight="1">
       <c r="A273" s="38">
         <v>964</v>
       </c>
@@ -53955,8 +54253,9 @@
       <c r="C273" s="41" t="s">
         <v>3061</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D273" s="57"/>
+    </row>
+    <row r="274" spans="1:4" ht="47.25" customHeight="1">
       <c r="A274" s="38">
         <v>2060</v>
       </c>
@@ -53966,8 +54265,9 @@
       <c r="C274" s="41" t="s">
         <v>3063</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D274" s="57"/>
+    </row>
+    <row r="275" spans="1:4" ht="47.25" customHeight="1">
       <c r="A275" s="38">
         <v>2809</v>
       </c>
@@ -53977,8 +54277,9 @@
       <c r="C275" s="41" t="s">
         <v>3065</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D275" s="57"/>
+    </row>
+    <row r="276" spans="1:4" ht="47.25" customHeight="1">
       <c r="A276" s="38">
         <v>3225</v>
       </c>
@@ -53988,8 +54289,9 @@
       <c r="C276" s="41" t="s">
         <v>3067</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D276" s="57"/>
+    </row>
+    <row r="277" spans="1:4" ht="31.75" customHeight="1">
       <c r="A277" s="38" t="s">
         <v>3068</v>
       </c>
@@ -53999,8 +54301,9 @@
       <c r="C277" s="41" t="s">
         <v>3070</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D277" s="57"/>
+    </row>
+    <row r="278" spans="1:4" ht="31.75" customHeight="1">
       <c r="A278" s="38" t="s">
         <v>3071</v>
       </c>
@@ -54010,8 +54313,9 @@
       <c r="C278" s="41" t="s">
         <v>3073</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D278" s="57"/>
+    </row>
+    <row r="279" spans="1:4" ht="31.75" customHeight="1">
       <c r="A279" s="38" t="s">
         <v>3074</v>
       </c>
@@ -54021,8 +54325,9 @@
       <c r="C279" s="41" t="s">
         <v>3076</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D279" s="57"/>
+    </row>
+    <row r="280" spans="1:4" ht="31.75" customHeight="1">
       <c r="A280" s="38" t="s">
         <v>3077</v>
       </c>
@@ -54032,8 +54337,9 @@
       <c r="C280" s="41" t="s">
         <v>3079</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D280" s="57"/>
+    </row>
+    <row r="281" spans="1:4" ht="31.75" customHeight="1">
       <c r="A281" s="38" t="s">
         <v>3080</v>
       </c>
@@ -54043,8 +54349,9 @@
       <c r="C281" s="41" t="s">
         <v>1883</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D281" s="57"/>
+    </row>
+    <row r="282" spans="1:4" ht="31.75" customHeight="1">
       <c r="A282" s="38">
         <v>256</v>
       </c>
@@ -54054,8 +54361,9 @@
       <c r="C282" s="41" t="s">
         <v>3083</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D282" s="57"/>
+    </row>
+    <row r="283" spans="1:4" ht="31.75" customHeight="1">
       <c r="A283" s="38">
         <v>265</v>
       </c>
@@ -54065,8 +54373,9 @@
       <c r="C283" s="41" t="s">
         <v>3085</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D283" s="57"/>
+    </row>
+    <row r="284" spans="1:4" ht="31.75" customHeight="1">
       <c r="A284" s="38">
         <v>3339</v>
       </c>
@@ -54076,8 +54385,9 @@
       <c r="C284" s="41" t="s">
         <v>3087</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D284" s="57"/>
+    </row>
+    <row r="285" spans="1:4" ht="31.75" customHeight="1">
       <c r="A285" s="38">
         <v>568</v>
       </c>
@@ -54087,8 +54397,9 @@
       <c r="C285" s="41" t="s">
         <v>3089</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D285" s="57"/>
+    </row>
+    <row r="286" spans="1:4" ht="47.25" customHeight="1">
       <c r="A286" s="38">
         <v>1692</v>
       </c>
@@ -54098,8 +54409,9 @@
       <c r="C286" s="41" t="s">
         <v>3091</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D286" s="57"/>
+    </row>
+    <row r="287" spans="1:4" ht="47.25" customHeight="1">
       <c r="A287" s="38">
         <v>2143</v>
       </c>
@@ -54109,8 +54421,9 @@
       <c r="C287" s="41" t="s">
         <v>3093</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D287" s="57"/>
+    </row>
+    <row r="288" spans="1:4" ht="31.75" customHeight="1">
       <c r="A288" s="38">
         <v>638</v>
       </c>
@@ -54120,8 +54433,9 @@
       <c r="C288" s="41" t="s">
         <v>3095</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D288" s="57"/>
+    </row>
+    <row r="289" spans="1:4" ht="31.75" customHeight="1">
       <c r="A289" s="38">
         <v>516</v>
       </c>
@@ -54131,8 +54445,9 @@
       <c r="C289" s="41" t="s">
         <v>3097</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D289" s="57"/>
+    </row>
+    <row r="290" spans="1:4" ht="47.25" customHeight="1">
       <c r="A290" s="38">
         <v>730</v>
       </c>
@@ -54142,8 +54457,9 @@
       <c r="C290" s="41" t="s">
         <v>3099</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D290" s="57"/>
+    </row>
+    <row r="291" spans="1:4" ht="47.25" customHeight="1">
       <c r="A291" s="38">
         <v>1312</v>
       </c>
@@ -54153,8 +54469,9 @@
       <c r="C291" s="41" t="s">
         <v>3101</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D291" s="57"/>
+    </row>
+    <row r="292" spans="1:4" ht="47.25" customHeight="1">
       <c r="A292" s="38">
         <v>3472</v>
       </c>
@@ -54164,8 +54481,9 @@
       <c r="C292" s="41" t="s">
         <v>3103</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D292" s="57"/>
+    </row>
+    <row r="293" spans="1:4" ht="47.25" customHeight="1">
       <c r="A293" s="38">
         <v>1771</v>
       </c>
@@ -54175,8 +54493,9 @@
       <c r="C293" s="41" t="s">
         <v>3105</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D293" s="57"/>
+    </row>
+    <row r="294" spans="1:4" ht="47.25" customHeight="1">
       <c r="A294" s="38">
         <v>1682</v>
       </c>
@@ -54186,8 +54505,9 @@
       <c r="C294" s="41" t="s">
         <v>3103</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D294" s="57"/>
+    </row>
+    <row r="295" spans="1:4" ht="31.75" customHeight="1">
       <c r="A295" s="38">
         <v>1216</v>
       </c>
@@ -54197,8 +54517,9 @@
       <c r="C295" s="41" t="s">
         <v>3108</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D295" s="57"/>
+    </row>
+    <row r="296" spans="1:4" ht="31.75" customHeight="1">
       <c r="A296" s="38">
         <v>1246</v>
       </c>
@@ -54208,8 +54529,9 @@
       <c r="C296" s="41" t="s">
         <v>3110</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D296" s="57"/>
+    </row>
+    <row r="297" spans="1:4" ht="31.75" customHeight="1">
       <c r="A297" s="38">
         <v>5</v>
       </c>
@@ -54219,8 +54541,9 @@
       <c r="C297" s="41" t="s">
         <v>3112</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D297" s="57"/>
+    </row>
+    <row r="298" spans="1:4" ht="31.75" customHeight="1">
       <c r="A298" s="38">
         <v>647</v>
       </c>
@@ -54230,8 +54553,9 @@
       <c r="C298" s="41" t="s">
         <v>3114</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D298" s="57"/>
+    </row>
+    <row r="299" spans="1:4" ht="47.25" customHeight="1">
       <c r="A299" s="38">
         <v>3040</v>
       </c>
@@ -54241,8 +54565,9 @@
       <c r="C299" s="41" t="s">
         <v>3116</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D299" s="57"/>
+    </row>
+    <row r="300" spans="1:4" ht="31.75" customHeight="1">
       <c r="A300" s="38">
         <v>375</v>
       </c>
@@ -54252,8 +54577,9 @@
       <c r="C300" s="41" t="s">
         <v>3118</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D300" s="57"/>
+    </row>
+    <row r="301" spans="1:4" ht="47.25" customHeight="1">
       <c r="A301" s="38">
         <v>1130</v>
       </c>
@@ -54263,8 +54589,9 @@
       <c r="C301" s="41" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D301" s="57"/>
+    </row>
+    <row r="302" spans="1:4" ht="31.75" customHeight="1">
       <c r="A302" s="38">
         <v>96</v>
       </c>
@@ -54274,8 +54601,9 @@
       <c r="C302" s="41" t="s">
         <v>3121</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D302" s="57"/>
+    </row>
+    <row r="303" spans="1:4" ht="47.25" customHeight="1">
       <c r="A303" s="38">
         <v>1770</v>
       </c>
@@ -54285,8 +54613,9 @@
       <c r="C303" s="41" t="s">
         <v>3123</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D303" s="57"/>
+    </row>
+    <row r="304" spans="1:4" ht="31.75" customHeight="1">
       <c r="A304" s="38">
         <v>1547</v>
       </c>
@@ -54296,8 +54625,9 @@
       <c r="C304" s="41" t="s">
         <v>3125</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D304" s="57"/>
+    </row>
+    <row r="305" spans="1:4" ht="47.25" customHeight="1">
       <c r="A305" s="38">
         <v>1039</v>
       </c>
@@ -54307,8 +54637,9 @@
       <c r="C305" s="41" t="s">
         <v>3127</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D305" s="57"/>
+    </row>
+    <row r="306" spans="1:4" ht="31.75" customHeight="1">
       <c r="A306" s="38">
         <v>1000</v>
       </c>
@@ -54318,8 +54649,9 @@
       <c r="C306" s="41" t="s">
         <v>3129</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D306" s="57"/>
+    </row>
+    <row r="307" spans="1:4" ht="47.25" customHeight="1">
       <c r="A307" s="38">
         <v>2019</v>
       </c>
@@ -54329,8 +54661,9 @@
       <c r="C307" s="41" t="s">
         <v>3131</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D307" s="57"/>
+    </row>
+    <row r="308" spans="1:4" ht="47.25" customHeight="1">
       <c r="A308" s="38">
         <v>3563</v>
       </c>
@@ -54340,8 +54673,9 @@
       <c r="C308" s="41" t="s">
         <v>3133</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D308" s="57"/>
+    </row>
+    <row r="309" spans="1:4" ht="31.75" customHeight="1">
       <c r="A309" s="38">
         <v>3277</v>
       </c>
@@ -54351,8 +54685,9 @@
       <c r="C309" s="41" t="s">
         <v>3135</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D309" s="57"/>
+    </row>
+    <row r="310" spans="1:4" ht="31.75" customHeight="1">
       <c r="A310" s="38">
         <v>87</v>
       </c>
@@ -54362,8 +54697,9 @@
       <c r="C310" s="41" t="s">
         <v>3137</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D310" s="57"/>
+    </row>
+    <row r="311" spans="1:4" ht="31.75" customHeight="1">
       <c r="A311" s="38">
         <v>312</v>
       </c>
@@ -54373,8 +54709,9 @@
       <c r="C311" s="41" t="s">
         <v>3139</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D311" s="57"/>
+    </row>
+    <row r="312" spans="1:4" ht="31.75" customHeight="1">
       <c r="A312" s="38">
         <v>664</v>
       </c>
@@ -54384,8 +54721,9 @@
       <c r="C312" s="41" t="s">
         <v>3141</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D312" s="57"/>
+    </row>
+    <row r="313" spans="1:4" ht="31.75" customHeight="1">
       <c r="A313" s="38">
         <v>546</v>
       </c>
@@ -54395,8 +54733,9 @@
       <c r="C313" s="41" t="s">
         <v>3143</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D313" s="57"/>
+    </row>
+    <row r="314" spans="1:4" ht="47.25" customHeight="1">
       <c r="A314" s="38">
         <v>471</v>
       </c>
@@ -54406,8 +54745,9 @@
       <c r="C314" s="41" t="s">
         <v>3145</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D314" s="57"/>
+    </row>
+    <row r="315" spans="1:4" ht="31.75" customHeight="1">
       <c r="A315" s="38">
         <v>3018</v>
       </c>
@@ -54417,8 +54757,9 @@
       <c r="C315" s="41" t="s">
         <v>3147</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D315" s="57"/>
+    </row>
+    <row r="316" spans="1:4" ht="31.75" customHeight="1">
       <c r="A316" s="38">
         <v>526</v>
       </c>
@@ -54428,8 +54769,9 @@
       <c r="C316" s="41" t="s">
         <v>3149</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D316" s="57"/>
+    </row>
+    <row r="317" spans="1:4" ht="47.25" customHeight="1">
       <c r="A317" s="38">
         <v>3376</v>
       </c>
@@ -54439,8 +54781,9 @@
       <c r="C317" s="41" t="s">
         <v>3151</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D317" s="57"/>
+    </row>
+    <row r="318" spans="1:4" ht="31.75" customHeight="1">
       <c r="A318" s="38">
         <v>1879</v>
       </c>
@@ -54450,8 +54793,9 @@
       <c r="C318" s="41" t="s">
         <v>1870</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D318" s="57"/>
+    </row>
+    <row r="319" spans="1:4" ht="47.25" customHeight="1">
       <c r="A319" s="38">
         <v>2850</v>
       </c>
@@ -54461,8 +54805,9 @@
       <c r="C319" s="41" t="s">
         <v>1868</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D319" s="57"/>
+    </row>
+    <row r="320" spans="1:4" ht="47.25" customHeight="1">
       <c r="A320" s="38">
         <v>1947</v>
       </c>
@@ -54472,8 +54817,9 @@
       <c r="C320" s="41" t="s">
         <v>1864</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D320" s="57"/>
+    </row>
+    <row r="321" spans="1:4" ht="31.75" customHeight="1">
       <c r="A321" s="38">
         <v>1799</v>
       </c>
@@ -54483,8 +54829,9 @@
       <c r="C321" s="41" t="s">
         <v>3156</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D321" s="57"/>
+    </row>
+    <row r="322" spans="1:4" ht="47.25" customHeight="1">
       <c r="A322" s="38">
         <v>3533</v>
       </c>
@@ -54494,8 +54841,9 @@
       <c r="C322" s="41" t="s">
         <v>3158</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D322" s="57"/>
+    </row>
+    <row r="323" spans="1:4" ht="47.25" customHeight="1">
       <c r="A323" s="38">
         <v>3530</v>
       </c>
@@ -54505,8 +54853,9 @@
       <c r="C323" s="41" t="s">
         <v>3160</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D323" s="57"/>
+    </row>
+    <row r="324" spans="1:4" ht="31.75" customHeight="1">
       <c r="A324" s="38">
         <v>2172</v>
       </c>
@@ -54516,8 +54865,9 @@
       <c r="C324" s="41" t="s">
         <v>1874</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D324" s="57"/>
+    </row>
+    <row r="325" spans="1:4" ht="47.25" customHeight="1">
       <c r="A325" s="38">
         <v>2992</v>
       </c>
@@ -54527,8 +54877,9 @@
       <c r="C325" s="41" t="s">
         <v>3163</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D325" s="57"/>
+    </row>
+    <row r="326" spans="1:4" ht="31.75" customHeight="1">
       <c r="A326" s="38">
         <v>2403</v>
       </c>
@@ -54538,8 +54889,9 @@
       <c r="C326" s="41" t="s">
         <v>1886</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D326" s="57"/>
+    </row>
+    <row r="327" spans="1:4" ht="31.75" customHeight="1">
       <c r="A327" s="38">
         <v>1066</v>
       </c>
@@ -54549,8 +54901,9 @@
       <c r="C327" s="41" t="s">
         <v>1890</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D327" s="57"/>
+    </row>
+    <row r="328" spans="1:4" ht="31.75" customHeight="1">
       <c r="A328" s="38">
         <v>2741</v>
       </c>
@@ -54560,8 +54913,9 @@
       <c r="C328" s="41" t="s">
         <v>3167</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D328" s="57"/>
+    </row>
+    <row r="329" spans="1:4" ht="31.75" customHeight="1">
       <c r="A329" s="38">
         <v>996</v>
       </c>
@@ -54571,8 +54925,9 @@
       <c r="C329" s="41" t="s">
         <v>3169</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" ht="32.75" customHeight="1">
+      <c r="D329" s="57"/>
+    </row>
+    <row r="330" spans="1:4" ht="32.75" customHeight="1">
       <c r="A330" s="38">
         <v>1681</v>
       </c>
@@ -54582,8 +54937,9 @@
       <c r="C330" s="41" t="s">
         <v>3170</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D330" s="57"/>
+    </row>
+    <row r="331" spans="1:4" ht="47.25" customHeight="1">
       <c r="A331" s="38">
         <v>3283</v>
       </c>
@@ -54593,8 +54949,9 @@
       <c r="C331" s="41" t="s">
         <v>3172</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D331" s="57"/>
+    </row>
+    <row r="332" spans="1:4" ht="47.25" customHeight="1">
       <c r="A332" s="38">
         <v>3615</v>
       </c>
@@ -54604,8 +54961,9 @@
       <c r="C332" s="41" t="s">
         <v>3174</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D332" s="57"/>
+    </row>
+    <row r="333" spans="1:4" ht="47.25" customHeight="1">
       <c r="A333" s="38">
         <v>3149</v>
       </c>
@@ -54615,8 +54973,9 @@
       <c r="C333" s="41" t="s">
         <v>3176</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D333" s="57"/>
+    </row>
+    <row r="334" spans="1:4" ht="31.75" customHeight="1">
       <c r="A334" s="38">
         <v>943</v>
       </c>
@@ -54626,8 +54985,9 @@
       <c r="C334" s="41" t="s">
         <v>3178</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D334" s="57"/>
+    </row>
+    <row r="335" spans="1:4" ht="31.75" customHeight="1">
       <c r="A335" s="38">
         <v>847</v>
       </c>
@@ -54637,8 +54997,9 @@
       <c r="C335" s="41" t="s">
         <v>3180</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D335" s="57"/>
+    </row>
+    <row r="336" spans="1:4" ht="31.75" customHeight="1">
       <c r="A336" s="38" t="s">
         <v>3181</v>
       </c>
@@ -54648,8 +55009,9 @@
       <c r="C336" s="41" t="s">
         <v>3183</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D336" s="57"/>
+    </row>
+    <row r="337" spans="1:4" ht="47.25" customHeight="1">
       <c r="A337" s="38">
         <v>2247</v>
       </c>
@@ -54659,8 +55021,9 @@
       <c r="C337" s="41" t="s">
         <v>3185</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" ht="47.25" customHeight="1">
+      <c r="D337" s="57"/>
+    </row>
+    <row r="338" spans="1:4" ht="47.25" customHeight="1">
       <c r="A338" s="38">
         <v>3568</v>
       </c>
@@ -54670,8 +55033,9 @@
       <c r="C338" s="41" t="s">
         <v>3187</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" ht="31.75" customHeight="1">
+      <c r="D338" s="57"/>
+    </row>
+    <row r="339" spans="1:4" ht="31.75" customHeight="1">
       <c r="A339" s="38">
         <v>864</v>
       </c>
@@ -54681,10 +55045,11 @@
       <c r="C339" s="41" t="s">
         <v>3189</v>
       </c>
+      <c r="D339" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -55044,10 +55409,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="54" t="s">
         <v>3743</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2" ht="26" customHeight="1">
       <c r="A2" s="34" t="s">
